--- a/input/2012 Election Results.xlsx
+++ b/input/2012 Election Results.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nico/Dropbox/DataAnalysisProject/Input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nj995/dropbox/projects/2016_trump_vote/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Results Election 2012" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -258,6 +258,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -528,9 +531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
